--- a/data/input/mesh_data_quad8.xlsx
+++ b/data/input/mesh_data_quad8.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF045AB5-4478-4C96-B82C-4134CE30CCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="9180" yWindow="3170" windowWidth="19790" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conec" sheetId="1" r:id="rId1"/>
@@ -20,11 +21,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,1364 +367,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>12</v>
-      </c>
-      <c r="C1">
-        <v>19</v>
-      </c>
-      <c r="D1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>13</v>
-      </c>
-      <c r="G1">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="H1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>15</v>
       </c>
       <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>11</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>27</v>
       </c>
       <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
       <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
         <v>22</v>
       </c>
-      <c r="F6">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>23</v>
-      </c>
-      <c r="H6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>31</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="G7">
         <v>23</v>
       </c>
-      <c r="G7">
-        <v>45</v>
-      </c>
       <c r="H7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
         <v>31</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>36</v>
       </c>
       <c r="D8">
         <v>37</v>
       </c>
       <c r="E8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>36</v>
       </c>
       <c r="D9">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>102</v>
+      </c>
+      <c r="F9">
+        <v>47</v>
+      </c>
+      <c r="G9">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="D10">
         <v>96</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>46</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>48</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>49</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>35</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>87</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>88</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>38</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>89</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>51</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>40</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>101</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>107</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>75</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>53</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>103</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>79</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>38</v>
-      </c>
-      <c r="D12">
-        <v>39</v>
-      </c>
-      <c r="E12">
-        <v>55</v>
-      </c>
-      <c r="F12">
-        <v>52</v>
-      </c>
-      <c r="G12">
-        <v>56</v>
-      </c>
-      <c r="H12">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>76</v>
       </c>
       <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="D13">
         <v>39</v>
       </c>
-      <c r="C13">
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>76</v>
+      </c>
+      <c r="B14">
+        <v>39</v>
+      </c>
+      <c r="C14">
         <v>40</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>75</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>57</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>58</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>54</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>36</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>100</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>101</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>40</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>47</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>104</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>53</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>38</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>88</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>108</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>95</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>51</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>90</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>98</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>96</v>
-      </c>
-      <c r="B16">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>39</v>
-      </c>
-      <c r="E16">
-        <v>49</v>
-      </c>
-      <c r="F16">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>58</v>
-      </c>
-      <c r="H16">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>96</v>
       </c>
       <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
         <v>39</v>
       </c>
-      <c r="C17">
+      <c r="E17">
+        <v>49</v>
+      </c>
+      <c r="F17">
+        <v>59</v>
+      </c>
+      <c r="G17">
+        <v>58</v>
+      </c>
+      <c r="H17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>39</v>
+      </c>
+      <c r="C18">
         <v>38</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>95</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>61</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>56</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>60</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>35</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>76</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>77</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>41</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>55</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>81</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>62</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>43</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>84</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>64</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>17</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>91</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>42</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>41</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>78</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>66</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>62</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>82</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>41</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>86</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>87</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>35</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>68</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>92</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>50</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>42</v>
-      </c>
-      <c r="B22">
-        <v>85</v>
-      </c>
-      <c r="C22">
-        <v>86</v>
-      </c>
-      <c r="D22">
-        <v>41</v>
-      </c>
-      <c r="E22">
-        <v>69</v>
-      </c>
-      <c r="F22">
-        <v>93</v>
-      </c>
-      <c r="G22">
-        <v>68</v>
-      </c>
-      <c r="H22">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>84</v>
       </c>
       <c r="B23">
         <v>85</v>
       </c>
       <c r="C23">
+        <v>86</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>69</v>
+      </c>
+      <c r="F23">
+        <v>93</v>
+      </c>
+      <c r="G23">
+        <v>68</v>
+      </c>
+      <c r="H23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>84</v>
+      </c>
+      <c r="B24">
+        <v>85</v>
+      </c>
+      <c r="C24">
         <v>42</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>43</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>94</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>69</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>70</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>78</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>106</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>21</v>
-      </c>
-      <c r="D24">
-        <v>44</v>
-      </c>
-      <c r="E24">
-        <v>83</v>
-      </c>
-      <c r="F24">
-        <v>74</v>
-      </c>
-      <c r="G24">
-        <v>71</v>
-      </c>
-      <c r="H24">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>43</v>
       </c>
       <c r="D25">
         <v>44</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F25">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H25">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
         <v>43</v>
-      </c>
-      <c r="B26">
-        <v>42</v>
-      </c>
-      <c r="C26">
-        <v>78</v>
       </c>
       <c r="D26">
         <v>44</v>
       </c>
       <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>64</v>
+      </c>
+      <c r="G26">
+        <v>73</v>
+      </c>
+      <c r="H26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>44</v>
+      </c>
+      <c r="E27">
         <v>70</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>67</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>72</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>116</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>124</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>119</v>
-      </c>
-      <c r="D27">
-        <v>110</v>
-      </c>
-      <c r="E27">
-        <v>117</v>
-      </c>
-      <c r="F27">
-        <v>118</v>
-      </c>
-      <c r="G27">
-        <v>111</v>
-      </c>
-      <c r="H27">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>116</v>
       </c>
       <c r="D28">
         <v>110</v>
       </c>
       <c r="E28">
+        <v>117</v>
+      </c>
+      <c r="F28">
+        <v>118</v>
+      </c>
+      <c r="G28">
+        <v>111</v>
+      </c>
+      <c r="H28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>116</v>
+      </c>
+      <c r="D29">
+        <v>110</v>
+      </c>
+      <c r="E29">
         <v>10</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>115</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>112</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>110</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>119</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>125</v>
-      </c>
-      <c r="D29">
-        <v>122</v>
-      </c>
-      <c r="E29">
-        <v>111</v>
-      </c>
-      <c r="F29">
-        <v>120</v>
-      </c>
-      <c r="G29">
-        <v>123</v>
-      </c>
-      <c r="H29">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <v>110</v>
       </c>
       <c r="D30">
         <v>122</v>
       </c>
       <c r="E30">
+        <v>111</v>
+      </c>
+      <c r="F30">
+        <v>120</v>
+      </c>
+      <c r="G30">
+        <v>123</v>
+      </c>
+      <c r="H30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>110</v>
+      </c>
+      <c r="D31">
+        <v>122</v>
+      </c>
+      <c r="E31">
         <v>11</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>113</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>114</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>128</v>
-      </c>
-      <c r="B31">
-        <v>190</v>
-      </c>
-      <c r="C31">
-        <v>191</v>
-      </c>
-      <c r="D31">
-        <v>189</v>
-      </c>
-      <c r="E31">
-        <v>136</v>
-      </c>
-      <c r="F31">
-        <v>186</v>
-      </c>
-      <c r="G31">
-        <v>185</v>
-      </c>
-      <c r="H31">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>128</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C32">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D32">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E32">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F32">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="G32">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H32">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="B33">
         <v>127</v>
       </c>
       <c r="C33">
+        <v>183</v>
+      </c>
+      <c r="D33">
+        <v>190</v>
+      </c>
+      <c r="E33">
+        <v>139</v>
+      </c>
+      <c r="F33">
+        <v>138</v>
+      </c>
+      <c r="G33">
+        <v>184</v>
+      </c>
+      <c r="H33">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>176</v>
+      </c>
+      <c r="B34">
+        <v>127</v>
+      </c>
+      <c r="C34">
         <v>128</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>189</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>140</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>139</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>137</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>129</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>88</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>87</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>126</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>142</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>89</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>141</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>173</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>188</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>181</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>131</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>174</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>180</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>144</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>130</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>129</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>126</v>
-      </c>
-      <c r="D36">
-        <v>171</v>
-      </c>
-      <c r="E36">
-        <v>147</v>
-      </c>
-      <c r="F36">
-        <v>143</v>
-      </c>
-      <c r="G36">
-        <v>146</v>
-      </c>
-      <c r="H36">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>173</v>
-      </c>
-      <c r="B37">
-        <v>131</v>
-      </c>
-      <c r="C37">
-        <v>130</v>
       </c>
       <c r="D37">
         <v>171</v>
       </c>
       <c r="E37">
+        <v>147</v>
+      </c>
+      <c r="F37">
+        <v>143</v>
+      </c>
+      <c r="G37">
+        <v>146</v>
+      </c>
+      <c r="H37">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>173</v>
+      </c>
+      <c r="B38">
+        <v>131</v>
+      </c>
+      <c r="C38">
+        <v>130</v>
+      </c>
+      <c r="D38">
+        <v>171</v>
+      </c>
+      <c r="E38">
         <v>145</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>149</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>148</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>131</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>181</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>183</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>127</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>144</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>182</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>138</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>178</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>108</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>88</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>129</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>179</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>90</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>142</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>130</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>131</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>127</v>
-      </c>
-      <c r="D40">
-        <v>176</v>
-      </c>
-      <c r="E40">
-        <v>149</v>
-      </c>
-      <c r="F40">
-        <v>150</v>
-      </c>
-      <c r="G40">
-        <v>140</v>
-      </c>
-      <c r="H40">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>178</v>
-      </c>
-      <c r="B41">
-        <v>129</v>
-      </c>
-      <c r="C41">
-        <v>130</v>
       </c>
       <c r="D41">
         <v>176</v>
       </c>
       <c r="E41">
+        <v>149</v>
+      </c>
+      <c r="F41">
+        <v>150</v>
+      </c>
+      <c r="G41">
+        <v>140</v>
+      </c>
+      <c r="H41">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>178</v>
+      </c>
+      <c r="B42">
+        <v>129</v>
+      </c>
+      <c r="C42">
+        <v>130</v>
+      </c>
+      <c r="D42">
+        <v>176</v>
+      </c>
+      <c r="E42">
         <v>151</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>147</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>152</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>132</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>169</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>171</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>126</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>153</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>170</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>146</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>84</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>20</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>122</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>134</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>91</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>121</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>155</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>167</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>169</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>132</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>133</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>168</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>153</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>157</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>126</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>87</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>86</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>132</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>141</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>92</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>159</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>132</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>86</v>
-      </c>
-      <c r="C46">
-        <v>85</v>
-      </c>
-      <c r="D46">
-        <v>133</v>
-      </c>
-      <c r="E46">
-        <v>159</v>
-      </c>
-      <c r="F46">
-        <v>93</v>
-      </c>
-      <c r="G46">
-        <v>160</v>
-      </c>
-      <c r="H46">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>134</v>
-      </c>
-      <c r="B47">
-        <v>133</v>
       </c>
       <c r="C47">
         <v>85</v>
       </c>
       <c r="D47">
+        <v>133</v>
+      </c>
+      <c r="E47">
+        <v>159</v>
+      </c>
+      <c r="F47">
+        <v>93</v>
+      </c>
+      <c r="G47">
+        <v>160</v>
+      </c>
+      <c r="H47">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>134</v>
+      </c>
+      <c r="B48">
+        <v>133</v>
+      </c>
+      <c r="C48">
+        <v>85</v>
+      </c>
+      <c r="D48">
         <v>84</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>161</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>160</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>94</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>135</v>
-      </c>
-      <c r="B48">
-        <v>125</v>
-      </c>
-      <c r="C48">
-        <v>187</v>
-      </c>
-      <c r="D48">
-        <v>167</v>
-      </c>
-      <c r="E48">
-        <v>162</v>
-      </c>
-      <c r="F48">
-        <v>165</v>
-      </c>
-      <c r="G48">
-        <v>166</v>
-      </c>
-      <c r="H48">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>135</v>
       </c>
       <c r="B49">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C49">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="D49">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="E49">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F49">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G49">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="H49">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>135</v>
       </c>
       <c r="B50">
+        <v>134</v>
+      </c>
+      <c r="C50">
+        <v>122</v>
+      </c>
+      <c r="D50">
+        <v>125</v>
+      </c>
+      <c r="E50">
+        <v>164</v>
+      </c>
+      <c r="F50">
+        <v>155</v>
+      </c>
+      <c r="G50">
+        <v>123</v>
+      </c>
+      <c r="H50">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>135</v>
+      </c>
+      <c r="B51">
         <v>167</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>133</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>134</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>163</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>158</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>161</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>194</v>
-      </c>
-      <c r="B51">
-        <v>200</v>
-      </c>
-      <c r="C51">
-        <v>201</v>
-      </c>
-      <c r="D51">
-        <v>197</v>
-      </c>
-      <c r="E51">
-        <v>195</v>
-      </c>
-      <c r="F51">
-        <v>199</v>
-      </c>
-      <c r="G51">
-        <v>196</v>
-      </c>
-      <c r="H51">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>194</v>
       </c>
       <c r="B52">
+        <v>200</v>
+      </c>
+      <c r="C52">
+        <v>201</v>
+      </c>
+      <c r="D52">
         <v>197</v>
       </c>
-      <c r="C52">
+      <c r="E52">
+        <v>195</v>
+      </c>
+      <c r="F52">
+        <v>199</v>
+      </c>
+      <c r="G52">
+        <v>196</v>
+      </c>
+      <c r="H52">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>194</v>
+      </c>
+      <c r="B53">
+        <v>197</v>
+      </c>
+      <c r="C53">
         <v>191</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>190</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>192</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>198</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>186</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>193</v>
       </c>
     </row>
@@ -1702,1620 +1760,1628 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>-1124.9929999999999</v>
-      </c>
-      <c r="B1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-1124.9929999999999</v>
       </c>
       <c r="B2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-1124.9929999999999</v>
+      </c>
+      <c r="B3">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>-1312.4929</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>-1124.9929999999999</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>-937.49300000000005</v>
-      </c>
-      <c r="B5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-1499.9929</v>
       </c>
       <c r="B6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-1499.9929</v>
       </c>
       <c r="B7">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-1499.9929</v>
       </c>
       <c r="B8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-1499.9929</v>
+      </c>
+      <c r="B9">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>-1124.9929999999999</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-1312.4929</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>-937.49300000000005</v>
+        <v>-1312.4929</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>-937.49300000000005</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>-1124.9929999999999</v>
-      </c>
-      <c r="B12">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>-1312.4929</v>
       </c>
       <c r="B13">
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>-937.49300000000005</v>
+        <v>-1312.4929</v>
       </c>
       <c r="B14">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>-749.99300000000005</v>
+        <v>-937.49300000000005</v>
       </c>
       <c r="B15">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>-749.99300000000005</v>
       </c>
       <c r="B16">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>-749.99300000000005</v>
       </c>
       <c r="B17">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>-749.99300000000005</v>
+      </c>
+      <c r="B18">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>-1499.9929</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>-1499.9929</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>-1499.9929</v>
+      </c>
+      <c r="B20">
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-749.99300000000005</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>-749.99300000000005</v>
       </c>
       <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>-749.99300000000005</v>
+      </c>
+      <c r="B22">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>1100.0035</v>
-      </c>
-      <c r="B22">
-        <v>424.99810000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>700.00350000000003</v>
       </c>
       <c r="B23">
         <v>424.99810000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
+        <v>700.00350000000003</v>
+      </c>
+      <c r="B24">
+        <v>424.99810000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>1100.0017</v>
-      </c>
-      <c r="B24">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1300.0009</v>
       </c>
       <c r="B25">
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>900.00260000000003</v>
+        <v>1300.0009</v>
       </c>
       <c r="B26">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
+        <v>900.00260000000003</v>
+      </c>
+      <c r="B27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>1100.0053</v>
-      </c>
-      <c r="B27">
-        <v>249.99610000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1300.0062</v>
       </c>
       <c r="B28">
         <v>249.99610000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>900.00440000000003</v>
+        <v>1300.0062</v>
       </c>
       <c r="B29">
         <v>249.99610000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
+        <v>900.00440000000003</v>
+      </c>
+      <c r="B30">
+        <v>249.99610000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>1500.0035</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>424.99810000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>700.00350000000003</v>
-      </c>
-      <c r="B31">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>700.00350000000003</v>
       </c>
       <c r="B32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>700.00350000000003</v>
+      </c>
+      <c r="B33">
         <v>249.99610000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>1500</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>1500.0071</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>249.99610000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>-105.99550000000001</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>170.39429999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>363.81470000000002</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>426.54379999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>530.6626</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>448.85129999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>96.728499999999997</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>146.99969999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>120.1977</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>293.40820000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>154.13390000000001</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>442.1053</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>-281.76240000000001</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>183.22569999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>-439.03859999999997</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>213.90940000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>-596.93150000000003</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>240.65600000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>-611.96460000000002</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>451.21449999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>615.33309999999994</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>524.42560000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>515.33479999999997</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>349.4237</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>384.07010000000002</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>513.27189999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>447.23869999999999</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>437.69749999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>369.41120000000001</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>321.52300000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>-94.662599999999998</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>85.197100000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>90.032300000000006</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>73.499899999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>-4.6334999999999997</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>158.697</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>165.6438</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>521.05259999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>53.193800000000003</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>447.5797</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>-139.37090000000001</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>266.31580000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>108.4631</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>220.20400000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>-26.2743</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>327.8227</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>137.16579999999999</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>367.75670000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>258.97430000000003</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>434.3245</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>190.11439999999999</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>135.99889999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>247.6027</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>254.95519999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>-304.50810000000001</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>272.73149999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>-193.87899999999999</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>176.81</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>-673.46230000000003</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>270.32799999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>-590.12940000000003</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>120.328</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>-360.40050000000002</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>198.5675</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>-445.64620000000002</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>333.48169999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>-265.87900000000002</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>91.612899999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>-427.85</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>106.9547</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>-517.98509999999999</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>227.28270000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>-680.97879999999998</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>525.60730000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>-532.10910000000001</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>452.1343</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>-604.44809999999995</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>345.93520000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>-624.99649999999997</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>600</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>-47.746299999999998</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>453.05410000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>-172.74619999999999</v>
-      </c>
-      <c r="B76">
-        <v>362.2373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>-327.25369999999998</v>
       </c>
       <c r="B77">
         <v>362.2373</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
+        <v>-327.25369999999998</v>
+      </c>
+      <c r="B78">
+        <v>362.2373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>-452.25369999999998</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>453.05399999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>-12.237299999999999</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>522.74630000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>-103.054</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>397.74630000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>-250</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>-396.94589999999999</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>397.74630000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>-487.7627</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>522.74630000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>-583.32719999999995</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>-416.66140000000001</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>-249.9956</v>
+        <v>-416.66140000000001</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>-83.329800000000006</v>
+        <v>-249.9956</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>83.335999999999999</v>
+        <v>-83.329800000000006</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>3.0999999999999999E-3</v>
+        <v>83.335999999999999</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>166.66890000000001</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>-666.66010000000006</v>
+        <v>166.66890000000001</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>-166.6627</v>
+        <v>-666.66010000000006</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>-333.32850000000002</v>
+        <v>-166.6627</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>-499.99430000000001</v>
+        <v>-333.32850000000002</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
+        <v>-499.99430000000001</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>283.50029999999998</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>124.99809999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>375.0077</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>216.50219999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>435.30250000000001</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>241.47730000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>258.52300000000002</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>64.7042</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>323.23099999999999</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>176.77330000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>404.32560000000001</v>
-      </c>
-      <c r="B100">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>177.15369999999999</v>
       </c>
       <c r="B101">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>552.16459999999995</v>
+        <v>177.15369999999999</v>
       </c>
       <c r="B102">
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>88.576899999999995</v>
+        <v>552.16459999999995</v>
       </c>
       <c r="B103">
         <v>600</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>290.73970000000003</v>
+        <v>88.576899999999995</v>
       </c>
       <c r="B104">
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
+        <v>290.73970000000003</v>
+      </c>
+      <c r="B105">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>600.00519999999995</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>249.99610000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>-500</v>
-      </c>
-      <c r="B106">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>0</v>
       </c>
       <c r="B107">
         <v>600</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>250.0018</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>500.00700000000001</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <v>249.99610000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>-1124.9929999999999</v>
-      </c>
-      <c r="B110">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>-1124.9929999999999</v>
       </c>
       <c r="B111">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>-1124.9929999999999</v>
+      </c>
+      <c r="B112">
         <v>-450</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
         <v>-1312.4929</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>-300</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
         <v>-1124.9929999999999</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>-150</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
         <v>-937.49300000000005</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>-300</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>-1499.9929</v>
-      </c>
-      <c r="B115">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>-1499.9929</v>
       </c>
       <c r="B116">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>-1499.9929</v>
       </c>
       <c r="B117">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>-1499.9929</v>
+      </c>
+      <c r="B118">
         <v>-450</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
         <v>-1312.4929</v>
-      </c>
-      <c r="B118">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>-1124.9929999999999</v>
       </c>
       <c r="B119">
         <v>-600</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>-937.49300000000005</v>
+        <v>-1124.9929999999999</v>
       </c>
       <c r="B120">
         <v>-600</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>-749.99300000000005</v>
+        <v>-937.49300000000005</v>
       </c>
       <c r="B121">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>-749.99300000000005</v>
       </c>
       <c r="B122">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>-749.99300000000005</v>
       </c>
       <c r="B123">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>-749.99300000000005</v>
+      </c>
+      <c r="B124">
         <v>-450</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125">
         <v>-1499.9929</v>
-      </c>
-      <c r="B124">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>-749.99300000000005</v>
       </c>
       <c r="B125">
         <v>-600</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
+        <v>-749.99300000000005</v>
+      </c>
+      <c r="B126">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
         <v>-105.99550000000001</v>
       </c>
-      <c r="B126">
+      <c r="B127">
         <v>-170.39429999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128">
         <v>363.81319999999999</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>-426.55220000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129">
         <v>530.6626</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>-448.85910000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130">
         <v>96.726500000000001</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>-147.00219999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
         <v>120.19459999999999</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>-293.41230000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132">
         <v>154.13210000000001</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>-442.10849999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133">
         <v>-281.76240000000001</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>-183.22569999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134">
         <v>-439.03859999999997</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <v>-213.90940000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135">
         <v>-596.93150000000003</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <v>-240.65600000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136">
         <v>-611.96460000000002</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>-451.21449999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137">
         <v>615.33309999999994</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <v>-524.42949999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138">
         <v>515.33479999999997</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>-349.43669999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139">
         <v>384.06939999999997</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>-513.27610000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140">
         <v>447.23790000000002</v>
       </c>
-      <c r="B139">
+      <c r="B140">
         <v>-437.7056</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141">
         <v>369.41539999999998</v>
       </c>
-      <c r="B140">
+      <c r="B141">
         <v>-321.53910000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142">
         <v>-94.662599999999998</v>
       </c>
-      <c r="B141">
+      <c r="B142">
         <v>-85.197100000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143">
         <v>90.031300000000002</v>
       </c>
-      <c r="B142">
+      <c r="B143">
         <v>-73.501099999999994</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144">
         <v>-4.6345000000000001</v>
       </c>
-      <c r="B143">
+      <c r="B144">
         <v>-158.69820000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145">
         <v>165.6429</v>
       </c>
-      <c r="B144">
+      <c r="B145">
         <v>-521.05430000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146">
         <v>53.186300000000003</v>
       </c>
-      <c r="B145">
+      <c r="B146">
         <v>-447.57209999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147">
         <v>-139.37620000000001</v>
       </c>
-      <c r="B146">
+      <c r="B147">
         <v>-266.3141</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148">
         <v>108.4606</v>
       </c>
-      <c r="B147">
+      <c r="B148">
         <v>-220.2072</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149">
         <v>-26.281199999999998</v>
       </c>
-      <c r="B148">
+      <c r="B149">
         <v>-327.82299999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150">
         <v>137.1634</v>
       </c>
-      <c r="B149">
+      <c r="B150">
         <v>-367.7604</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>258.97269999999997</v>
       </c>
-      <c r="B150">
+      <c r="B151">
         <v>-434.33030000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152">
         <v>190.10599999999999</v>
       </c>
-      <c r="B151">
+      <c r="B152">
         <v>-135.99639999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153">
         <v>247.6061</v>
       </c>
-      <c r="B152">
+      <c r="B153">
         <v>-254.9691</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154">
         <v>-304.5027</v>
       </c>
-      <c r="B153">
+      <c r="B154">
         <v>-272.72980000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155">
         <v>-193.87899999999999</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <v>-176.81</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156">
         <v>-673.46230000000003</v>
       </c>
-      <c r="B155">
+      <c r="B156">
         <v>-270.32799999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157">
         <v>-590.12940000000003</v>
       </c>
-      <c r="B156">
+      <c r="B157">
         <v>-120.328</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158">
         <v>-360.40050000000002</v>
       </c>
-      <c r="B157">
+      <c r="B158">
         <v>-198.5675</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159">
         <v>-445.6395</v>
       </c>
-      <c r="B158">
+      <c r="B159">
         <v>-333.4726</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160">
         <v>-265.87900000000002</v>
       </c>
-      <c r="B159">
+      <c r="B160">
         <v>-91.612899999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161">
         <v>-427.85</v>
       </c>
-      <c r="B160">
+      <c r="B161">
         <v>-106.9547</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162">
         <v>-517.98509999999999</v>
       </c>
-      <c r="B161">
+      <c r="B162">
         <v>-227.28270000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163">
         <v>-680.97879999999998</v>
       </c>
-      <c r="B162">
+      <c r="B163">
         <v>-525.60730000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164">
         <v>-532.10249999999996</v>
       </c>
-      <c r="B163">
+      <c r="B164">
         <v>-452.12509999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165">
         <v>-604.44809999999995</v>
       </c>
-      <c r="B164">
+      <c r="B165">
         <v>-345.93520000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166">
         <v>-624.99649999999997</v>
       </c>
-      <c r="B165">
+      <c r="B166">
         <v>-600</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167">
         <v>-487.75920000000002</v>
       </c>
-      <c r="B166">
+      <c r="B167">
         <v>-522.7355</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168">
         <v>-452.24040000000002</v>
       </c>
-      <c r="B167">
+      <c r="B168">
         <v>-453.03570000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169">
         <v>-396.93220000000002</v>
       </c>
-      <c r="B168">
+      <c r="B169">
         <v>-397.7364</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170">
         <v>-327.24299999999999</v>
       </c>
-      <c r="B169">
+      <c r="B170">
         <v>-362.23379999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171">
         <v>-250</v>
       </c>
-      <c r="B170">
+      <c r="B171">
         <v>-350</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172">
         <v>-172.75700000000001</v>
       </c>
-      <c r="B171">
+      <c r="B172">
         <v>-362.23379999999997</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173">
         <v>-103.06780000000001</v>
       </c>
-      <c r="B172">
+      <c r="B173">
         <v>-397.73630000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174">
         <v>-47.759599999999999</v>
       </c>
-      <c r="B173">
+      <c r="B174">
         <v>-453.03579999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175">
         <v>-12.2408</v>
       </c>
-      <c r="B174">
+      <c r="B175">
         <v>-522.7355</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176">
         <v>435.30810000000002</v>
       </c>
-      <c r="B175">
+      <c r="B176">
         <v>-241.49690000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177">
         <v>375.01760000000002</v>
       </c>
-      <c r="B176">
+      <c r="B177">
         <v>-216.52600000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178">
         <v>323.22460000000001</v>
       </c>
-      <c r="B177">
+      <c r="B178">
         <v>-176.7851</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179">
         <v>283.4855</v>
       </c>
-      <c r="B178">
+      <c r="B179">
         <v>-124.9906</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180">
         <v>258.51679999999999</v>
       </c>
-      <c r="B179">
+      <c r="B180">
         <v>-64.699299999999994</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181">
         <v>88.576899999999995</v>
-      </c>
-      <c r="B180">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>177.15369999999999</v>
       </c>
       <c r="B181">
         <v>-600</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>290.73970000000003</v>
+        <v>177.15369999999999</v>
       </c>
       <c r="B182">
         <v>-600</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>404.32560000000001</v>
+        <v>290.73970000000003</v>
       </c>
       <c r="B183">
         <v>-600</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>552.16459999999995</v>
+        <v>404.32560000000001</v>
       </c>
       <c r="B184">
         <v>-600</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
+        <v>552.16459999999995</v>
+      </c>
+      <c r="B185">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186">
         <v>600.00519999999995</v>
       </c>
-      <c r="B185">
+      <c r="B186">
         <v>-250.01429999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187">
         <v>700.00350000000003</v>
       </c>
-      <c r="B186">
+      <c r="B187">
         <v>-425.00709999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188">
         <v>-500</v>
-      </c>
-      <c r="B187">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>0</v>
       </c>
       <c r="B188">
         <v>-600</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190">
         <v>500.00700000000001</v>
       </c>
-      <c r="B189">
+      <c r="B190">
         <v>-250.01429999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>700.00350000000003</v>
-      </c>
-      <c r="B190">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>700.00350000000003</v>
       </c>
       <c r="B191">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>700.00350000000003</v>
+      </c>
+      <c r="B192">
         <v>-250.01429999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193">
         <v>1100.0053</v>
       </c>
-      <c r="B192">
+      <c r="B193">
         <v>-425.00709999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194">
         <v>900.00440000000003</v>
-      </c>
-      <c r="B193">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1100.0053</v>
       </c>
       <c r="B194">
         <v>-600</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>1300.0062</v>
+        <v>1100.0053</v>
       </c>
       <c r="B195">
         <v>-600</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1300.0062</v>
       </c>
       <c r="B196">
-        <v>-250.01429999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>1100.0053</v>
+        <v>1300.0062</v>
       </c>
       <c r="B197">
         <v>-250.01429999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>900.00440000000003</v>
+        <v>1100.0053</v>
       </c>
       <c r="B198">
         <v>-250.01429999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>1500.0071</v>
+        <v>900.00440000000003</v>
       </c>
       <c r="B199">
-        <v>-425.00709999999998</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-250.01429999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1500.0071</v>
       </c>
       <c r="B200">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-425.00709999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1500.0071</v>
       </c>
       <c r="B201">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>1500.0071</v>
+      </c>
+      <c r="B202">
         <v>-250.01429999999999</v>
       </c>
     </row>
